--- a/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,21</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,37%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,8; 221,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,29; 138,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,57; 83,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,8; 221,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,29; 138,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,57; 83,57</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 0,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 0,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,14</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,83%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,67; 54,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,8; 71,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,31; 38,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,67; 54,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,8; 71,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,31; 38,47</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 2,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 0,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 2,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 0,57</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,05%</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,92; 290,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,92; 290,37</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 0,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 0,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 0,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 0,06</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,17%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,82; 53,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,45; 33,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,46; 15,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,82; 53,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,45; 33,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,46; 15,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,21</t>
+          <t>-0,95; 0,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,21</t>
+          <t>-0,95; 0,17</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-49,37%</t>
+          <t>-50,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-49,37%</t>
+          <t>-50,56%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,57; 83,57</t>
+          <t>-88,63; 73,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,57; 83,57</t>
+          <t>-88,63; 73,52</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,14</t>
+          <t>-0,91; 0,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,14</t>
+          <t>-0,91; 0,09</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,83%</t>
+          <t>-46,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-40,83%</t>
+          <t>-46,17%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,31; 38,47</t>
+          <t>-76,46; 25,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,31; 38,47</t>
+          <t>-76,46; 25,04</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,57</t>
+          <t>-1,31; 0,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,57</t>
+          <t>-1,31; 0,58</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-12,76%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,92; 290,37</t>
+          <t>-88,97; 302,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,92; 290,37</t>
+          <t>-88,97; 302,44</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,06</t>
+          <t>-0,67; 0,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,06</t>
+          <t>-0,67; 0,02</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-37,17%</t>
+          <t>-40,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-37,17%</t>
+          <t>-40,59%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 15,21</t>
+          <t>-66,42; 11,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 15,21</t>
+          <t>-66,42; 11,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,7</t>
+          <t>-0,59; 0,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,44</t>
+          <t>-0,82; 0,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,17</t>
+          <t>-0,91; 0,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,7</t>
+          <t>-0,59; 0,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,44</t>
+          <t>-0,82; 0,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,17</t>
+          <t>-0,91; 0,19</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 221,91</t>
+          <t>-62,52; 265,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,29; 138,73</t>
+          <t>-85,99; 170,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,63; 73,52</t>
+          <t>-88,73; 109,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 221,91</t>
+          <t>-62,52; 265,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,29; 138,73</t>
+          <t>-85,99; 170,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,63; 73,52</t>
+          <t>-88,73; 109,92</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,12</t>
+          <t>-0,89; 0,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,26</t>
+          <t>-0,84; 0,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,09</t>
+          <t>-0,89; 0,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,12</t>
+          <t>-0,89; 0,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,26</t>
+          <t>-0,84; 0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,09</t>
+          <t>-0,89; 0,06</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,67; 54,27</t>
+          <t>-81,91; 58,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 71,54</t>
+          <t>-71,93; 75,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,46; 25,04</t>
+          <t>-78,47; 20,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,67; 54,27</t>
+          <t>-81,91; 58,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 71,54</t>
+          <t>-71,93; 75,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-76,46; 25,04</t>
+          <t>-78,47; 20,8</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,1</t>
+          <t>-0,65; 2,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,82</t>
+          <t>-1,14; 0,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,58</t>
+          <t>-1,2; 0,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,1</t>
+          <t>-0,65; 2,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,82</t>
+          <t>-1,14; 0,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,58</t>
+          <t>-1,2; 0,63</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,97; 302,44</t>
+          <t>-86,63; 485,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-88,97; 302,44</t>
+          <t>-86,63; 485,74</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,28</t>
+          <t>-0,48; 0,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,16</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,02</t>
+          <t>-0,64; 0,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,28</t>
+          <t>-0,48; 0,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,16</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,02</t>
+          <t>-0,64; 0,03</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 53,66</t>
+          <t>-52,67; 60,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,45; 33,79</t>
+          <t>-65,66; 34,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 11,53</t>
+          <t>-67,35; 9,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 53,66</t>
+          <t>-52,67; 60,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,45; 33,79</t>
+          <t>-65,66; 34,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 11,53</t>
+          <t>-67,35; 9,93</t>
         </is>
       </c>
     </row>
